--- a/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
+++ b/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001282</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新机遇灵活配置混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>003799</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>华安新泰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>009694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>华安安利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003799</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合A</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.07</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003800</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合C</t>
+          <t>华安大安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.07</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>003800</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>华安新泰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009694</t>
+          <t>001282</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安安利混合</t>
+          <t>华安新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69.21</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
+++ b/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1060,7 +1061,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -1076,6 +1076,290 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
+++ b/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1365,4 +1366,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
+++ b/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1374,7 +1375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,17 +1386,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1405,14 +1426,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
       </c>
     </row>
     <row r="3">
@@ -1421,14 +1464,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1437,13 +1502,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
+++ b/数据整理/stocks/A股/上证主板/603131-上海沪工.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,433 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163503</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天治核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6299</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2169</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003799</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安新泰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1469</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009694</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安安利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1103</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003800</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安新泰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001282</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
+      <c r="D5" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -890,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -941,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3297</t>
+          <t>1.2188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -979,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>79.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.7885</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1017,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.7256</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1055,29 +719,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>82.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,7 +1143,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1426,36 +1173,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2188</t>
+          <t>0.3297</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1464,36 +1211,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.66</t>
+          <t>86.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7885</t>
+          <t>0.0970</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1502,36 +1249,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7256</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1540,112 +1287,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.52</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.23</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1987</t>
-        </is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1659,96 +1323,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.23</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>